--- a/Thesis code/Solutions/solutionsModified.xlsx
+++ b/Thesis code/Solutions/solutionsModified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renanabenyehuda/PycharmProjects/ThesisAlgorithm/Thesis code/Solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF47662-684A-6F4E-93C6-A56964930975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D370A7-D51F-B142-BAA5-6B7E55A45AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15320" yWindow="760" windowWidth="14920" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#0" sheetId="1" r:id="rId1"/>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3397,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>

--- a/Thesis code/Solutions/solutionsModified.xlsx
+++ b/Thesis code/Solutions/solutionsModified.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -568,16 +568,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -585,13 +585,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -602,16 +602,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
         <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -670,13 +670,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -704,13 +704,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -721,16 +721,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -772,16 +772,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
         <v>7</v>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>42</v>
-      </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -823,13 +823,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -874,13 +874,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="n">
         <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -959,16 +959,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" t="n">
         <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1010,16 +1010,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
         <v>14</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" t="n">
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -1325,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -1391,16 +1391,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -1544,16 +1544,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>17</v>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
         <v>17</v>
-      </c>
-      <c r="B40" t="n">
-        <v>7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -2122,47 +2122,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B49" t="n">
+        <v>14</v>
+      </c>
+      <c r="C49" t="n">
         <v>16</v>
-      </c>
-      <c r="C49" t="n">
-        <v>37</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
         <v>13</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>8</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -2241,18 +2241,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2267,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,13 +2333,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -2316,13 +2350,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -2333,13 +2367,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -2350,13 +2384,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -2367,13 +2401,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -2384,13 +2418,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -2401,16 +2435,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2418,16 +2452,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2435,13 +2469,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -2452,13 +2486,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -2469,13 +2503,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -2486,13 +2520,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -2503,13 +2537,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -2520,13 +2554,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -2537,13 +2571,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -2554,13 +2588,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>37</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -2571,16 +2605,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
         <v>14</v>
       </c>
-      <c r="C18" t="n">
-        <v>32</v>
-      </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2588,13 +2622,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -2605,13 +2639,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -2622,13 +2656,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -2639,16 +2673,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2656,13 +2690,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -2673,13 +2707,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -2690,10 +2724,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>17</v>
@@ -2707,16 +2741,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2724,13 +2758,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -2741,13 +2775,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -2758,13 +2792,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -2775,13 +2809,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -2792,13 +2826,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -2809,13 +2843,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
         <v>13</v>
-      </c>
-      <c r="C32" t="n">
-        <v>18</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -2826,16 +2860,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2843,13 +2877,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -2860,16 +2894,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2877,16 +2911,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2894,13 +2928,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -2911,13 +2945,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -2928,13 +2962,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -2945,13 +2979,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -2962,16 +2996,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
         <v>12</v>
       </c>
-      <c r="B41" t="n">
-        <v>6</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7</v>
-      </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2979,13 +3013,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -2996,13 +3030,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
         <v>17</v>
-      </c>
-      <c r="B43" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" t="n">
-        <v>8</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -3013,13 +3047,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -3030,16 +3064,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -3047,10 +3081,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
@@ -3064,50 +3098,50 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -3115,13 +3149,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
         <v>36</v>
-      </c>
-      <c r="B50" t="n">
-        <v>11</v>
-      </c>
-      <c r="C50" t="n">
-        <v>18</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -3132,16 +3166,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -3149,16 +3183,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>-1</v>
@@ -3166,16 +3200,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>-1</v>
@@ -3183,18 +3217,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
+        <v>44</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
         <v>14</v>
       </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3209,7 +3277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,13 +3309,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -3258,13 +3326,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -3275,13 +3343,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -3292,13 +3360,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -3309,13 +3377,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -3326,13 +3394,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -3343,13 +3411,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -3360,16 +3428,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3377,13 +3445,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -3394,13 +3462,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -3411,13 +3479,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -3428,16 +3496,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3445,13 +3513,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -3462,13 +3530,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -3479,16 +3547,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3496,16 +3564,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3513,16 +3581,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3530,13 +3598,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -3547,16 +3615,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -3564,13 +3632,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -3581,13 +3649,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -3598,13 +3666,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -3615,13 +3683,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -3632,10 +3700,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>18</v>
@@ -3649,13 +3717,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
         <v>10</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -3666,13 +3734,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -3683,16 +3751,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3700,13 +3768,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
         <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -3717,13 +3785,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -3734,13 +3802,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" t="n">
         <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -3751,13 +3819,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -3768,13 +3836,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -3785,13 +3853,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -3802,10 +3870,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>42</v>
@@ -3819,13 +3887,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -3836,13 +3904,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -3853,13 +3921,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -3870,16 +3938,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3887,13 +3955,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -3904,13 +3972,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -3921,13 +3989,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -3938,13 +4006,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -3955,13 +4023,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -3972,16 +4040,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -3989,16 +4057,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4006,50 +4074,50 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
         <v>15</v>
       </c>
-      <c r="B47" t="n">
-        <v>6</v>
-      </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -4057,10 +4125,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
         <v>18</v>
@@ -4074,13 +4142,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -4091,13 +4159,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -4108,13 +4176,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B53" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -4125,18 +4193,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4151,7 +4253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,13 +4285,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -4200,13 +4302,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -4217,16 +4319,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4234,13 +4336,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -4251,16 +4353,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4268,13 +4370,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -4285,13 +4387,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -4302,16 +4404,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28</v>
-      </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4319,10 +4421,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>18</v>
@@ -4336,13 +4438,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -4353,16 +4455,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4370,16 +4472,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4387,10 +4489,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>17</v>
@@ -4404,13 +4506,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -4421,13 +4523,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -4438,13 +4540,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -4455,16 +4557,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4472,16 +4574,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4489,16 +4591,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4506,13 +4608,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -4523,13 +4625,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
         <v>16</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -4540,13 +4642,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -4557,13 +4659,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -4574,13 +4676,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -4591,13 +4693,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -4608,13 +4710,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -4625,13 +4727,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -4642,10 +4744,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>17</v>
@@ -4659,13 +4761,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -4676,13 +4778,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -4693,13 +4795,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -4710,13 +4812,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -4727,13 +4829,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -4744,13 +4846,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -4761,16 +4863,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4778,13 +4880,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -4795,13 +4897,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -4812,13 +4914,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -4829,13 +4931,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -4846,13 +4948,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -4863,13 +4965,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -4880,16 +4982,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4897,13 +4999,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -4914,13 +5016,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -4931,13 +5033,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -4948,47 +5050,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -4999,13 +5101,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
         <v>36</v>
-      </c>
-      <c r="B50" t="n">
-        <v>11</v>
-      </c>
-      <c r="C50" t="n">
-        <v>18</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -5016,16 +5118,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -5033,13 +5135,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -5050,16 +5152,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>-1</v>
@@ -5067,18 +5169,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5093,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,13 +5261,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -5142,13 +5278,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -5159,16 +5295,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5176,13 +5312,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -5193,13 +5329,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -5210,13 +5346,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -5227,13 +5363,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -5244,13 +5380,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -5261,13 +5397,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -5278,10 +5414,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
@@ -5295,13 +5431,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -5312,13 +5448,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -5329,13 +5465,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -5346,13 +5482,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -5363,13 +5499,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -5380,13 +5516,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
         <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -5397,13 +5533,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -5414,13 +5550,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -5431,13 +5567,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -5448,16 +5584,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
-        <v>44</v>
-      </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5482,10 +5618,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
         <v>14</v>
@@ -5499,13 +5635,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -5516,13 +5652,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -5533,13 +5669,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -5550,13 +5686,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -5567,13 +5703,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -5584,13 +5720,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -5601,13 +5737,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -5618,13 +5754,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
         <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -5635,13 +5771,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -5652,13 +5788,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -5669,16 +5805,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -5686,13 +5822,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -5703,16 +5839,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -5720,13 +5856,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" t="n">
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -5737,13 +5873,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -5754,16 +5890,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -5771,13 +5907,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -5788,13 +5924,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -5805,13 +5941,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
@@ -5822,13 +5958,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -5839,13 +5975,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -5873,13 +6009,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -5890,47 +6026,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
         <v>16</v>
       </c>
-      <c r="C48" t="n">
-        <v>18</v>
-      </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -5941,13 +6077,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -5958,13 +6094,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -5975,13 +6111,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -5992,13 +6128,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -6009,18 +6145,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6035,7 +6205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6067,13 +6237,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -6084,13 +6254,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -6101,13 +6271,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -6118,16 +6288,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6135,13 +6305,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -6152,13 +6322,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -6169,10 +6339,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -6186,13 +6356,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -6203,13 +6373,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -6220,13 +6390,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -6237,13 +6407,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -6254,16 +6424,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6271,13 +6441,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -6288,13 +6458,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -6305,13 +6475,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -6322,13 +6492,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
         <v>13</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -6339,13 +6509,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -6356,13 +6526,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -6373,16 +6543,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B20" t="n">
         <v>12</v>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6390,13 +6560,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -6407,13 +6577,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -6424,13 +6594,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -6441,13 +6611,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -6458,16 +6628,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6475,13 +6645,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -6492,16 +6662,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6509,13 +6679,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -6526,13 +6696,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -6543,16 +6713,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -6560,13 +6730,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -6577,13 +6747,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -6594,13 +6764,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -6611,13 +6781,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -6628,13 +6798,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -6645,16 +6815,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -6662,16 +6832,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -6679,13 +6849,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -6696,13 +6866,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -6713,16 +6883,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -6730,13 +6900,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -6764,13 +6934,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -6781,13 +6951,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -6798,13 +6968,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -6815,16 +6985,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -6832,47 +7002,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -6883,13 +7053,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -6900,13 +7070,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -6934,16 +7104,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>-1</v>
@@ -6951,18 +7121,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
         <v>18</v>
       </c>
-      <c r="C54" t="n">
-        <v>19</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6977,7 +7181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7009,13 +7213,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -7026,16 +7230,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7043,13 +7247,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -7060,13 +7264,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -7077,13 +7281,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -7094,16 +7298,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7111,13 +7315,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -7128,16 +7332,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7145,13 +7349,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -7162,13 +7366,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -7179,13 +7383,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -7196,13 +7400,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -7213,16 +7417,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7230,13 +7434,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -7247,10 +7451,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
@@ -7264,13 +7468,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -7281,16 +7485,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7298,13 +7502,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -7315,13 +7519,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -7332,13 +7536,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -7349,13 +7553,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -7366,13 +7570,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -7383,13 +7587,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -7400,13 +7604,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -7417,13 +7621,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -7434,13 +7638,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -7451,13 +7655,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -7468,13 +7672,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -7485,13 +7689,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -7502,13 +7706,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -7519,13 +7723,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -7536,13 +7740,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -7553,13 +7757,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -7570,16 +7774,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -7587,13 +7791,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -7604,13 +7808,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -7638,16 +7842,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -7655,13 +7859,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -7672,16 +7876,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -7689,16 +7893,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -7706,16 +7910,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -7723,13 +7927,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -7740,16 +7944,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -7757,13 +7961,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -7774,47 +7978,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -7825,13 +8029,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -7842,10 +8046,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
         <v>18</v>
@@ -7876,13 +8080,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -7893,18 +8097,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
         <v>12</v>
       </c>
-      <c r="C54" t="n">
-        <v>13</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7919,7 +8157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7951,13 +8189,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -7968,13 +8206,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
         <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -7985,16 +8223,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -8002,13 +8240,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -8019,10 +8257,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>17</v>
@@ -8036,13 +8274,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -8053,16 +8291,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8070,13 +8308,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -8087,13 +8325,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -8104,13 +8342,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -8121,13 +8359,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -8138,13 +8376,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -8155,13 +8393,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -8172,13 +8410,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -8189,16 +8427,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8206,16 +8444,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8223,16 +8461,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8240,10 +8478,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
@@ -8274,13 +8512,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
         <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -8291,13 +8529,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -8308,13 +8546,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -8325,13 +8563,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -8342,13 +8580,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
         <v>18</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>16</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -8359,13 +8597,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -8376,13 +8614,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -8393,13 +8631,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
         <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -8410,16 +8648,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -8427,13 +8665,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -8444,13 +8682,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -8461,13 +8699,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -8478,13 +8716,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" t="n">
         <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -8495,16 +8733,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -8512,16 +8750,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -8529,13 +8767,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -8546,13 +8784,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -8563,13 +8801,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -8580,13 +8818,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -8597,10 +8835,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
         <v>16</v>
@@ -8614,13 +8852,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -8631,16 +8869,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -8648,13 +8886,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -8665,13 +8903,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -8682,13 +8920,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -8699,16 +8937,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -8716,47 +8954,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" t="n">
         <v>6</v>
       </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -8767,13 +9005,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -8784,10 +9022,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>32</v>
@@ -8801,13 +9039,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -8818,10 +9056,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
         <v>18</v>
@@ -8835,18 +9073,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B55" t="n">
         <v>10</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C55" t="n">
         <v>12</v>
       </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8861,7 +9133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8893,10 +9165,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>28</v>
@@ -8910,13 +9182,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -8927,13 +9199,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -8944,13 +9216,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -8961,13 +9233,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -8978,13 +9250,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -8995,13 +9267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -9012,16 +9284,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9029,13 +9301,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -9046,13 +9318,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -9063,13 +9335,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -9080,16 +9352,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9097,10 +9369,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>16</v>
@@ -9114,13 +9386,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -9131,13 +9403,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -9148,13 +9420,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -9165,13 +9437,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -9182,13 +9454,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -9199,13 +9471,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -9216,13 +9488,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -9233,16 +9505,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9250,16 +9522,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9267,10 +9539,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
         <v>12</v>
@@ -9284,10 +9556,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
         <v>14</v>
@@ -9301,16 +9573,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9318,13 +9590,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" t="n">
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -9335,13 +9607,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -9352,13 +9624,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -9369,16 +9641,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -9386,16 +9658,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -9403,16 +9675,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -9420,10 +9692,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>28</v>
@@ -9437,13 +9709,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -9454,13 +9726,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" t="n">
         <v>8</v>
       </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -9471,13 +9743,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -9488,16 +9760,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -9505,10 +9777,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>12</v>
@@ -9522,13 +9794,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -9539,13 +9811,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -9556,13 +9828,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
         <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -9573,16 +9845,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -9590,13 +9862,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>13</v>
+      </c>
+      <c r="C43" t="n">
         <v>15</v>
-      </c>
-      <c r="C43" t="n">
-        <v>37</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -9607,13 +9879,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -9624,13 +9896,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -9641,13 +9913,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -9658,47 +9930,47 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
         <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -9709,13 +9981,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
@@ -9726,13 +9998,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
@@ -9743,13 +10015,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -9760,16 +10032,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>-1</v>
@@ -9777,18 +10049,52 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
